--- a/model/results/green_ggpos_h2pos/v_emissions.xlsx
+++ b/model/results/green_ggpos_h2pos/v_emissions.xlsx
@@ -781,19 +781,19 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>3106437.911691542</v>
+        <v>2670364.363333333</v>
       </c>
       <c r="C3" t="n">
-        <v>3106437.911691542</v>
+        <v>2779112.233333333</v>
       </c>
       <c r="D3" t="n">
-        <v>3106437.911691542</v>
+        <v>2779112.233333333</v>
       </c>
       <c r="E3" t="n">
-        <v>950829.8550995024</v>
+        <v>817354.8716666666</v>
       </c>
       <c r="F3" t="n">
-        <v>950829.8550995024</v>
+        <v>817354.8716666666</v>
       </c>
       <c r="G3" t="n">
         <v>65665.59999999999</v>
@@ -805,73 +805,73 @@
         <v>17617.6</v>
       </c>
       <c r="J3" t="n">
-        <v>410409.9999999999</v>
+        <v>369368.9999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>65665.59999999999</v>
+        <v>59099.03999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>32832.8</v>
+        <v>29549.51999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>53353.29999999999</v>
+        <v>48017.96999999999</v>
       </c>
       <c r="N3" t="n">
+        <v>33243.20999999999</v>
+      </c>
+      <c r="O3" t="n">
+        <v>166216.05</v>
+      </c>
+      <c r="P3" t="n">
+        <v>295495.2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>110810.7</v>
+      </c>
+      <c r="R3" t="n">
         <v>36936.89999999999</v>
       </c>
-      <c r="O3" t="n">
-        <v>184684.5</v>
-      </c>
-      <c r="P3" t="n">
-        <v>328327.9999999999</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>123123</v>
-      </c>
-      <c r="R3" t="n">
-        <v>41040.99999999999</v>
-      </c>
       <c r="S3" t="n">
-        <v>213413.2</v>
+        <v>192071.88</v>
       </c>
       <c r="T3" t="n">
-        <v>4104.099999999999</v>
+        <v>3693.689999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>110810.7</v>
+        <v>99729.62999999998</v>
       </c>
       <c r="V3" t="n">
-        <v>82081.99999999999</v>
+        <v>73873.79999999999</v>
       </c>
       <c r="W3" t="n">
-        <v>28728.69999999999</v>
+        <v>25855.82999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>180580.4</v>
+        <v>162522.36</v>
       </c>
       <c r="Y3" t="n">
-        <v>151851.7</v>
+        <v>136666.53</v>
       </c>
       <c r="Z3" t="n">
-        <v>82081.99999999999</v>
+        <v>73873.79999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.4099999999999</v>
+        <v>369.369</v>
       </c>
       <c r="AB3" t="n">
-        <v>2052.05</v>
+        <v>1846.845</v>
       </c>
       <c r="AC3" t="n">
-        <v>49249.19999999999</v>
+        <v>44324.27999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>12312.3</v>
+        <v>11081.07</v>
       </c>
       <c r="AE3" t="n">
-        <v>110810.7</v>
+        <v>99729.62999999998</v>
       </c>
       <c r="AF3" t="n">
-        <v>24624.59999999999</v>
+        <v>22162.14</v>
       </c>
       <c r="AG3" t="n">
         <v>312311.9999999999</v>
@@ -912,19 +912,19 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>3109544.349603233</v>
+        <v>2673034.727696666</v>
       </c>
       <c r="C4" t="n">
-        <v>3109544.349603233</v>
+        <v>2781891.345566665</v>
       </c>
       <c r="D4" t="n">
-        <v>3109544.349603233</v>
+        <v>2781891.345566665</v>
       </c>
       <c r="E4" t="n">
-        <v>951780.6849546018</v>
+        <v>818172.2265383331</v>
       </c>
       <c r="F4" t="n">
-        <v>951780.6849546018</v>
+        <v>818172.2265383331</v>
       </c>
       <c r="G4" t="n">
         <v>65731.26559999998</v>
@@ -936,73 +936,73 @@
         <v>17635.2176</v>
       </c>
       <c r="J4" t="n">
-        <v>410820.4099999999</v>
+        <v>369738.3689999999</v>
       </c>
       <c r="K4" t="n">
-        <v>65731.26559999997</v>
+        <v>59158.13903999998</v>
       </c>
       <c r="L4" t="n">
-        <v>32865.63279999998</v>
+        <v>29579.06951999999</v>
       </c>
       <c r="M4" t="n">
-        <v>53406.65329999998</v>
+        <v>48065.98796999999</v>
       </c>
       <c r="N4" t="n">
+        <v>33276.45320999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>166382.2660499999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>295790.6951999999</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>110921.5107</v>
+      </c>
+      <c r="R4" t="n">
         <v>36973.83689999999</v>
       </c>
-      <c r="O4" t="n">
-        <v>184869.1844999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>328656.3279999999</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>123246.123</v>
-      </c>
-      <c r="R4" t="n">
-        <v>41082.04099999999</v>
-      </c>
       <c r="S4" t="n">
-        <v>213626.6131999999</v>
+        <v>192263.9518799999</v>
       </c>
       <c r="T4" t="n">
-        <v>4108.204099999998</v>
+        <v>3697.383689999999</v>
       </c>
       <c r="U4" t="n">
-        <v>110921.5107</v>
+        <v>99829.35962999996</v>
       </c>
       <c r="V4" t="n">
-        <v>82164.08199999998</v>
+        <v>73947.67379999998</v>
       </c>
       <c r="W4" t="n">
-        <v>28757.42869999999</v>
+        <v>25881.68582999999</v>
       </c>
       <c r="X4" t="n">
-        <v>180760.9803999999</v>
+        <v>162684.88236</v>
       </c>
       <c r="Y4" t="n">
-        <v>152003.5517</v>
+        <v>136803.19653</v>
       </c>
       <c r="Z4" t="n">
-        <v>82164.08199999998</v>
+        <v>73947.67379999998</v>
       </c>
       <c r="AA4" t="n">
-        <v>410.8204099999999</v>
+        <v>369.7383689999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>2054.102049999999</v>
+        <v>1848.691844999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>49298.44919999998</v>
+        <v>44368.60427999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>12324.6123</v>
+        <v>11092.15107</v>
       </c>
       <c r="AE4" t="n">
-        <v>110921.5107</v>
+        <v>99829.35962999996</v>
       </c>
       <c r="AF4" t="n">
-        <v>24649.22459999999</v>
+        <v>22184.30213999999</v>
       </c>
       <c r="AG4" t="n">
         <v>296993.0963999999</v>
@@ -1043,19 +1043,19 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>3112653.893952836</v>
+        <v>2675707.762424362</v>
       </c>
       <c r="C5" t="n">
-        <v>3112653.893952836</v>
+        <v>2784673.236912232</v>
       </c>
       <c r="D5" t="n">
-        <v>3112653.893952836</v>
+        <v>2784673.236912232</v>
       </c>
       <c r="E5" t="n">
-        <v>952732.4656395562</v>
+        <v>818990.3987648713</v>
       </c>
       <c r="F5" t="n">
-        <v>952732.4656395562</v>
+        <v>818990.3987648713</v>
       </c>
       <c r="G5" t="n">
         <v>65796.99686559998</v>
@@ -1067,73 +1067,73 @@
         <v>17652.8528176</v>
       </c>
       <c r="J5" t="n">
-        <v>411231.2304099998</v>
+        <v>370108.1073689999</v>
       </c>
       <c r="K5" t="n">
-        <v>65796.99686559997</v>
+        <v>59217.29717903998</v>
       </c>
       <c r="L5" t="n">
-        <v>32898.49843279998</v>
+        <v>29608.64858951999</v>
       </c>
       <c r="M5" t="n">
-        <v>53460.05995329998</v>
+        <v>48114.05395796999</v>
       </c>
       <c r="N5" t="n">
-        <v>37010.81073689998</v>
+        <v>33309.72966320999</v>
       </c>
       <c r="O5" t="n">
-        <v>185054.0536844999</v>
+        <v>166548.6483160499</v>
       </c>
       <c r="P5" t="n">
-        <v>328984.9843279999</v>
+        <v>296086.4858951999</v>
       </c>
       <c r="Q5" t="n">
-        <v>123369.369123</v>
+        <v>111032.4322107</v>
       </c>
       <c r="R5" t="n">
-        <v>41123.12304099999</v>
+        <v>37010.81073689999</v>
       </c>
       <c r="S5" t="n">
-        <v>213840.2398131999</v>
+        <v>192456.21583188</v>
       </c>
       <c r="T5" t="n">
-        <v>4112.312304099998</v>
+        <v>3701.081073689999</v>
       </c>
       <c r="U5" t="n">
-        <v>111032.4322106999</v>
+        <v>99929.18898962995</v>
       </c>
       <c r="V5" t="n">
-        <v>82246.24608199998</v>
+        <v>74021.62147379998</v>
       </c>
       <c r="W5" t="n">
-        <v>28786.18612869999</v>
+        <v>25907.56751583</v>
       </c>
       <c r="X5" t="n">
-        <v>180941.7413803999</v>
+        <v>162847.5672423599</v>
       </c>
       <c r="Y5" t="n">
-        <v>152155.5552517</v>
+        <v>136939.99972653</v>
       </c>
       <c r="Z5" t="n">
-        <v>82246.24608199998</v>
+        <v>74021.62147379998</v>
       </c>
       <c r="AA5" t="n">
-        <v>411.2312304099999</v>
+        <v>370.1081073689999</v>
       </c>
       <c r="AB5" t="n">
-        <v>2056.156152049999</v>
+        <v>1850.540536844999</v>
       </c>
       <c r="AC5" t="n">
-        <v>49347.74764919998</v>
+        <v>44412.97288427999</v>
       </c>
       <c r="AD5" t="n">
-        <v>12336.9369123</v>
+        <v>11103.24322107</v>
       </c>
       <c r="AE5" t="n">
-        <v>111032.4322106999</v>
+        <v>99929.18898962995</v>
       </c>
       <c r="AF5" t="n">
-        <v>24673.87382459999</v>
+        <v>22206.48644213999</v>
       </c>
       <c r="AG5" t="n">
         <v>297290.0894963999</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>2993487.407855819</v>
+        <v>787759.8441725634</v>
       </c>
       <c r="C6" t="n">
-        <v>2993487.407855819</v>
+        <v>1527042.15947301</v>
       </c>
       <c r="D6" t="n">
-        <v>2993487.407855819</v>
+        <v>1527042.159473009</v>
       </c>
       <c r="E6" t="n">
-        <v>916257.5525946519</v>
+        <v>241120.4085775328</v>
       </c>
       <c r="F6" t="n">
-        <v>916257.5525946519</v>
+        <v>241120.4085775399</v>
       </c>
       <c r="G6" t="n">
         <v>65862.79386246557</v>
@@ -1198,73 +1198,73 @@
         <v>17670.50567041759</v>
       </c>
       <c r="J6" t="n">
-        <v>246985.4769842458</v>
+        <v>205821.2308202049</v>
       </c>
       <c r="K6" t="n">
-        <v>39517.67631747934</v>
+        <v>32931.39693123278</v>
       </c>
       <c r="L6" t="n">
-        <v>19758.83815873967</v>
+        <v>16465.69846561639</v>
       </c>
       <c r="M6" t="n">
-        <v>32108.11200795196</v>
+        <v>26756.76000662664</v>
       </c>
       <c r="N6" t="n">
-        <v>22228.69292858213</v>
+        <v>18523.91077381844</v>
       </c>
       <c r="O6" t="n">
-        <v>111143.4646429106</v>
+        <v>92619.5538690922</v>
       </c>
       <c r="P6" t="n">
-        <v>197588.3815873967</v>
+        <v>164656.9846561639</v>
       </c>
       <c r="Q6" t="n">
-        <v>74095.64309527376</v>
+        <v>61746.36924606147</v>
       </c>
       <c r="R6" t="n">
+        <v>20582.12308202049</v>
+      </c>
+      <c r="S6" t="n">
+        <v>107027.0400265065</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2058.212308202049</v>
+      </c>
+      <c r="U6" t="n">
+        <v>55571.73232145532</v>
+      </c>
+      <c r="V6" t="n">
+        <v>41164.24616404097</v>
+      </c>
+      <c r="W6" t="n">
+        <v>14407.48615741434</v>
+      </c>
+      <c r="X6" t="n">
+        <v>90561.34156089016</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>76153.8554034758</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>41164.24616404097</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>205.8212308202049</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1029.106154101024</v>
+      </c>
+      <c r="AC6" t="n">
         <v>24698.54769842459</v>
       </c>
-      <c r="S6" t="n">
-        <v>128432.4480318078</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2469.854769842459</v>
-      </c>
-      <c r="U6" t="n">
-        <v>66686.07878574637</v>
-      </c>
-      <c r="V6" t="n">
-        <v>49397.09539684917</v>
-      </c>
-      <c r="W6" t="n">
-        <v>17288.98338889721</v>
-      </c>
-      <c r="X6" t="n">
-        <v>108673.6098730682</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>91384.62648417096</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>49397.09539684917</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>246.9854769842458</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1234.927384921229</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>29638.2572381095</v>
-      </c>
       <c r="AD6" t="n">
-        <v>7409.564309527375</v>
+        <v>6174.636924606147</v>
       </c>
       <c r="AE6" t="n">
-        <v>66686.07878574637</v>
+        <v>55571.73232145532</v>
       </c>
       <c r="AF6" t="n">
-        <v>14819.12861905475</v>
+        <v>12349.27384921229</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>2996480.895263675</v>
+        <v>788547.6040167359</v>
       </c>
       <c r="C7" t="n">
-        <v>2996480.895263675</v>
+        <v>1528569.201632482</v>
       </c>
       <c r="D7" t="n">
-        <v>2996480.895263675</v>
+        <v>1528569.201632482</v>
       </c>
       <c r="E7" t="n">
-        <v>917173.8101472465</v>
+        <v>241361.5289861103</v>
       </c>
       <c r="F7" t="n">
-        <v>917173.8101472465</v>
+        <v>241361.5289861175</v>
       </c>
       <c r="G7" t="n">
         <v>65928.65665632802</v>
@@ -1329,73 +1329,73 @@
         <v>17688.17617608801</v>
       </c>
       <c r="J7" t="n">
-        <v>247232.4624612301</v>
+        <v>206027.0520510251</v>
       </c>
       <c r="K7" t="n">
-        <v>39557.19399379681</v>
+        <v>32964.32832816401</v>
       </c>
       <c r="L7" t="n">
-        <v>19778.59699689841</v>
+        <v>16482.16416408201</v>
       </c>
       <c r="M7" t="n">
-        <v>32140.22011995991</v>
+        <v>26783.51676663326</v>
       </c>
       <c r="N7" t="n">
-        <v>22250.9216215107</v>
+        <v>18542.43468459226</v>
       </c>
       <c r="O7" t="n">
-        <v>111254.6081075535</v>
+        <v>92712.17342296128</v>
       </c>
       <c r="P7" t="n">
-        <v>197785.969968984</v>
+        <v>164821.64164082</v>
       </c>
       <c r="Q7" t="n">
-        <v>74169.73873836901</v>
+        <v>61808.11561530751</v>
       </c>
       <c r="R7" t="n">
+        <v>20602.70520510251</v>
+      </c>
+      <c r="S7" t="n">
+        <v>107134.067066533</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2060.270520510251</v>
+      </c>
+      <c r="U7" t="n">
+        <v>55627.30405377677</v>
+      </c>
+      <c r="V7" t="n">
+        <v>41205.41041020501</v>
+      </c>
+      <c r="W7" t="n">
+        <v>14421.89364357175</v>
+      </c>
+      <c r="X7" t="n">
+        <v>90651.90290245102</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>76230.00925887928</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41205.41041020501</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>206.0270520510251</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1030.135260255125</v>
+      </c>
+      <c r="AC7" t="n">
         <v>24723.24624612301</v>
       </c>
-      <c r="S7" t="n">
-        <v>128560.8804798396</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2472.324624612301</v>
-      </c>
-      <c r="U7" t="n">
-        <v>66752.76486453212</v>
-      </c>
-      <c r="V7" t="n">
-        <v>49446.49249224601</v>
-      </c>
-      <c r="W7" t="n">
-        <v>17306.2723722861</v>
-      </c>
-      <c r="X7" t="n">
-        <v>108782.2834829412</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>91476.01111065512</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>49446.49249224601</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>247.2324624612301</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1236.16231230615</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>29667.89549534761</v>
-      </c>
       <c r="AD7" t="n">
-        <v>7416.973873836901</v>
+        <v>6180.811561530752</v>
       </c>
       <c r="AE7" t="n">
-        <v>66752.76486453212</v>
+        <v>55627.30405377677</v>
       </c>
       <c r="AF7" t="n">
-        <v>14833.9477476738</v>
+        <v>12361.6231230615</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>2999477.376158939</v>
+        <v>789336.1516207526</v>
       </c>
       <c r="C8" t="n">
-        <v>2999477.376158939</v>
+        <v>267159.9282408769</v>
       </c>
       <c r="D8" t="n">
-        <v>2999477.376158939</v>
+        <v>267159.9282408769</v>
       </c>
       <c r="E8" t="n">
-        <v>918090.9839573937</v>
+        <v>241602.8905150964</v>
       </c>
       <c r="F8" t="n">
-        <v>918090.9839573937</v>
+        <v>241602.8905151036</v>
       </c>
       <c r="G8" t="n">
         <v>65994.58531298436</v>
@@ -1460,73 +1460,73 @@
         <v>17705.8643522641</v>
       </c>
       <c r="J8" t="n">
-        <v>247479.6949236912</v>
+        <v>206233.0791030761</v>
       </c>
       <c r="K8" t="n">
-        <v>39596.75118779061</v>
+        <v>32997.29265649217</v>
       </c>
       <c r="L8" t="n">
-        <v>19798.3755938953</v>
+        <v>16498.64632824609</v>
       </c>
       <c r="M8" t="n">
-        <v>32172.36034007986</v>
+        <v>26810.30028339989</v>
       </c>
       <c r="N8" t="n">
-        <v>22273.17254313222</v>
+        <v>18560.97711927685</v>
       </c>
       <c r="O8" t="n">
-        <v>111365.8627156611</v>
+        <v>92804.88559638424</v>
       </c>
       <c r="P8" t="n">
-        <v>197983.755938953</v>
+        <v>164986.4632824609</v>
       </c>
       <c r="Q8" t="n">
-        <v>74243.90847710738</v>
+        <v>61869.92373092283</v>
       </c>
       <c r="R8" t="n">
+        <v>20623.30791030761</v>
+      </c>
+      <c r="S8" t="n">
+        <v>107241.2011335996</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2062.330791030761</v>
+      </c>
+      <c r="U8" t="n">
+        <v>55682.93135783054</v>
+      </c>
+      <c r="V8" t="n">
+        <v>41246.61582061522</v>
+      </c>
+      <c r="W8" t="n">
+        <v>14436.31553721533</v>
+      </c>
+      <c r="X8" t="n">
+        <v>90742.55480535347</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>76306.23926813815</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41246.61582061522</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>206.2330791030761</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1031.16539551538</v>
+      </c>
+      <c r="AC8" t="n">
         <v>24747.96949236913</v>
       </c>
-      <c r="S8" t="n">
-        <v>128689.4413603195</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2474.796949236913</v>
-      </c>
-      <c r="U8" t="n">
-        <v>66819.51762939665</v>
-      </c>
-      <c r="V8" t="n">
-        <v>49495.93898473826</v>
-      </c>
-      <c r="W8" t="n">
-        <v>17323.57864465839</v>
-      </c>
-      <c r="X8" t="n">
-        <v>108891.0657664242</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>91567.48712176576</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>49495.93898473826</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>247.4796949236913</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1237.398474618456</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>29697.56339084296</v>
-      </c>
       <c r="AD8" t="n">
-        <v>7424.390847710739</v>
+        <v>6186.992373092283</v>
       </c>
       <c r="AE8" t="n">
-        <v>66819.51762939665</v>
+        <v>55682.93135783054</v>
       </c>
       <c r="AF8" t="n">
-        <v>14848.78169542148</v>
+        <v>12373.98474618457</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>3002476.853535097</v>
+        <v>790125.4877723732</v>
       </c>
       <c r="C9" t="n">
-        <v>3002476.853535097</v>
+        <v>267427.0881691177</v>
       </c>
       <c r="D9" t="n">
-        <v>3002476.853535097</v>
+        <v>267427.0881691177</v>
       </c>
       <c r="E9" t="n">
-        <v>919009.074941351</v>
+        <v>241844.4934056114</v>
       </c>
       <c r="F9" t="n">
-        <v>919009.074941351</v>
+        <v>241844.4934056186</v>
       </c>
       <c r="G9" t="n">
         <v>66060.57989829732</v>
@@ -1698,19 +1698,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>3005479.330388632</v>
+        <v>790915.6132601456</v>
       </c>
       <c r="C10" t="n">
-        <v>3005479.330388632</v>
+        <v>267694.5152572868</v>
       </c>
       <c r="D10" t="n">
-        <v>3005479.330388632</v>
+        <v>267694.5152572868</v>
       </c>
       <c r="E10" t="n">
-        <v>919928.0840162922</v>
+        <v>242086.337899017</v>
       </c>
       <c r="F10" t="n">
-        <v>919928.0840162922</v>
+        <v>242086.3378990242</v>
       </c>
       <c r="G10" t="n">
         <v>66126.64047819562</v>
@@ -1829,19 +1829,19 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>791706.5288734055</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>267962.209772544</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>267962.209772544</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>242328.424236916</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>242328.4242369232</v>
       </c>
       <c r="G11" t="n">
         <v>66192.7671186738</v>
@@ -1960,19 +1960,19 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>792498.2354022791</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>268230.1719823166</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>268230.1719823166</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>242570.7526611529</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>242570.7526611601</v>
       </c>
       <c r="G12" t="n">
         <v>66258.95988579249</v>
@@ -2091,19 +2091,19 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>793290.7336376811</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>268498.4021542988</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>268498.4021542988</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>242813.323413814</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>242813.3234138213</v>
       </c>
       <c r="G13" t="n">
         <v>66325.21884567825</v>
@@ -2222,19 +2222,19 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>794084.0243713392</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268766.9005564532</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>268766.9005564532</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>243056.1367372351</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>243056.136737235</v>
       </c>
       <c r="G14" t="n">
         <v>66391.54406452393</v>
@@ -2353,19 +2353,19 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>794878.1083957106</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>269035.6674570091</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>269035.6674570097</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>243299.1928739686</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>243299.1928739722</v>
       </c>
       <c r="G15" t="n">
         <v>66457.93560858845</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>795672.9865041063</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>269304.7031244661</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>269304.7031244424</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>243542.4920668425</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>243542.4920668462</v>
       </c>
       <c r="G16" t="n">
         <v>66524.39354419702</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>269574.0078275905</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>269574.0078275895</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>269574.0078275669</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>82512.19631224696</v>
       </c>
       <c r="G17" t="n">
         <v>66590.91793774122</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>269843.581835418</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>269843.581835417</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>269843.5818354178</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>82594.70850855956</v>
       </c>
       <c r="G18" t="n">
         <v>66657.50885567896</v>
@@ -2877,19 +2877,19 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>270113.4254172533</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>270113.4254172524</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>270113.4254172532</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>82677.30321706773</v>
       </c>
       <c r="G19" t="n">
         <v>66724.16636453461</v>
@@ -3008,19 +3008,19 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>270383.5388426706</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>270383.5388426696</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>270383.5388426704</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>82759.98052028481</v>
       </c>
       <c r="G20" t="n">
         <v>66790.89053089915</v>
@@ -3139,19 +3139,19 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>270653.9223815128</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>270653.9223815131</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>270653.9223815129</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>82842.74050080532</v>
       </c>
       <c r="G21" t="n">
         <v>66857.68142143005</v>
